--- a/formatted/candidates/candidates-1/candidates-skill-ratings.xlsx
+++ b/formatted/candidates/candidates-1/candidates-skill-ratings.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe.meade/Git/MarineMax/tcn.migration/formatted/candidates-1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe.meade/Git/MarineMax/tcn.migration/formatted/candidates/candidates-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7863AEC9-CEAB-5D43-BD66-53B9BD23D7E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC172B5E-6C8E-344B-B640-3AE5569E67D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="55440" windowHeight="21180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2354,7 +2354,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D147" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/formatted/candidates/candidates-1/candidates-skill-ratings.xlsx
+++ b/formatted/candidates/candidates-1/candidates-skill-ratings.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe.meade/Git/MarineMax/tcn.migration/formatted/candidates/candidates-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC172B5E-6C8E-344B-B640-3AE5569E67D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46553227-ED06-EE43-A41E-B8004A766D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="55440" windowHeight="21180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$147</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$147</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="8">
   <si>
     <t>rating</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>longevity</t>
-  </si>
-  <si>
-    <t>accessRightAssets.id</t>
   </si>
   <si>
     <t>metaCreators.id</t>
@@ -421,19 +418,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D147"/>
+  <dimension ref="A1:C147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="40.33203125" customWidth="1"/>
+    <col min="2" max="3" width="40.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -443,11 +440,8 @@
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>4519359</v>
       </c>
@@ -455,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4519376</v>
       </c>
@@ -466,10 +460,10 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4519451</v>
       </c>
@@ -477,13 +471,10 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4519464</v>
       </c>
@@ -491,13 +482,10 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4519546</v>
       </c>
@@ -505,10 +493,10 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4519623</v>
       </c>
@@ -516,13 +504,10 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4519989</v>
       </c>
@@ -530,13 +515,10 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4520981</v>
       </c>
@@ -544,10 +526,10 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>4521240</v>
       </c>
@@ -555,13 +537,10 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>4519992</v>
       </c>
@@ -569,10 +548,10 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>4519698</v>
       </c>
@@ -580,10 +559,10 @@
         <v>6</v>
       </c>
       <c r="C12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>4519707</v>
       </c>
@@ -591,13 +570,10 @@
         <v>4</v>
       </c>
       <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>4520175</v>
       </c>
@@ -605,13 +581,10 @@
         <v>2</v>
       </c>
       <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>4520185</v>
       </c>
@@ -619,13 +592,10 @@
         <v>6</v>
       </c>
       <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4520153</v>
       </c>
@@ -633,13 +603,10 @@
         <v>6</v>
       </c>
       <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>4520017</v>
       </c>
@@ -647,13 +614,10 @@
         <v>2</v>
       </c>
       <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>4519955</v>
       </c>
@@ -661,13 +625,10 @@
         <v>2</v>
       </c>
       <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>4519581</v>
       </c>
@@ -675,10 +636,10 @@
         <v>2</v>
       </c>
       <c r="C19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>4520252</v>
       </c>
@@ -686,13 +647,10 @@
         <v>3</v>
       </c>
       <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>4520262</v>
       </c>
@@ -700,13 +658,10 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>4520488</v>
       </c>
@@ -714,13 +669,10 @@
         <v>6</v>
       </c>
       <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>4520548</v>
       </c>
@@ -728,10 +680,10 @@
         <v>6</v>
       </c>
       <c r="C23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>4520570</v>
       </c>
@@ -739,13 +691,10 @@
         <v>2</v>
       </c>
       <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>4521429</v>
       </c>
@@ -753,13 +702,10 @@
         <v>2</v>
       </c>
       <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="D25">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>4521443</v>
       </c>
@@ -767,13 +713,10 @@
         <v>2</v>
       </c>
       <c r="C26">
-        <v>2</v>
-      </c>
-      <c r="D26">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4521175</v>
       </c>
@@ -781,13 +724,10 @@
         <v>3</v>
       </c>
       <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="D27">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>4520863</v>
       </c>
@@ -795,10 +735,10 @@
         <v>2</v>
       </c>
       <c r="C28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>4521080</v>
       </c>
@@ -806,13 +746,10 @@
         <v>6</v>
       </c>
       <c r="C29">
-        <v>2</v>
-      </c>
-      <c r="D29">
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>4521136</v>
       </c>
@@ -820,13 +757,10 @@
         <v>5</v>
       </c>
       <c r="C30">
-        <v>2</v>
-      </c>
-      <c r="D30">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>4521780</v>
       </c>
@@ -834,13 +768,10 @@
         <v>3</v>
       </c>
       <c r="C31">
-        <v>2</v>
-      </c>
-      <c r="D31">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>4522227</v>
       </c>
@@ -848,13 +779,10 @@
         <v>2</v>
       </c>
       <c r="C32">
-        <v>2</v>
-      </c>
-      <c r="D32">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>4522492</v>
       </c>
@@ -862,13 +790,10 @@
         <v>2</v>
       </c>
       <c r="C33">
-        <v>2</v>
-      </c>
-      <c r="D33">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>4522786</v>
       </c>
@@ -876,13 +801,10 @@
         <v>4</v>
       </c>
       <c r="C34">
-        <v>2</v>
-      </c>
-      <c r="D34">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>4519482</v>
       </c>
@@ -890,13 +812,10 @@
         <v>6</v>
       </c>
       <c r="C35">
-        <v>2</v>
-      </c>
-      <c r="D35">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>4520054</v>
       </c>
@@ -904,13 +823,10 @@
         <v>5</v>
       </c>
       <c r="C36">
-        <v>2</v>
-      </c>
-      <c r="D36">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>4520024</v>
       </c>
@@ -918,13 +834,10 @@
         <v>2</v>
       </c>
       <c r="C37">
-        <v>2</v>
-      </c>
-      <c r="D37">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>4520440</v>
       </c>
@@ -932,13 +845,10 @@
         <v>2</v>
       </c>
       <c r="C38">
-        <v>2</v>
-      </c>
-      <c r="D38">
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>4520070</v>
       </c>
@@ -946,13 +856,10 @@
         <v>4</v>
       </c>
       <c r="C39">
-        <v>2</v>
-      </c>
-      <c r="D39">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>4520654</v>
       </c>
@@ -960,13 +867,10 @@
         <v>2</v>
       </c>
       <c r="C40">
-        <v>2</v>
-      </c>
-      <c r="D40">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>4520847</v>
       </c>
@@ -974,10 +878,10 @@
         <v>4</v>
       </c>
       <c r="C41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>4522875</v>
       </c>
@@ -985,13 +889,10 @@
         <v>2</v>
       </c>
       <c r="C42">
-        <v>2</v>
-      </c>
-      <c r="D42">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>4521297</v>
       </c>
@@ -999,10 +900,10 @@
         <v>2</v>
       </c>
       <c r="C43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>4521350</v>
       </c>
@@ -1010,13 +911,10 @@
         <v>6</v>
       </c>
       <c r="C44">
-        <v>2</v>
-      </c>
-      <c r="D44">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>4522890</v>
       </c>
@@ -1024,13 +922,10 @@
         <v>2</v>
       </c>
       <c r="C45">
-        <v>2</v>
-      </c>
-      <c r="D45">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>4522980</v>
       </c>
@@ -1038,13 +933,10 @@
         <v>2</v>
       </c>
       <c r="C46">
-        <v>2</v>
-      </c>
-      <c r="D46">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>4523007</v>
       </c>
@@ -1052,10 +944,10 @@
         <v>5</v>
       </c>
       <c r="C47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>4523319</v>
       </c>
@@ -1063,13 +955,10 @@
         <v>5</v>
       </c>
       <c r="C48">
-        <v>2</v>
-      </c>
-      <c r="D48">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>4523343</v>
       </c>
@@ -1077,13 +966,10 @@
         <v>6</v>
       </c>
       <c r="C49">
-        <v>2</v>
-      </c>
-      <c r="D49">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>4523458</v>
       </c>
@@ -1091,10 +977,10 @@
         <v>2</v>
       </c>
       <c r="C50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>4523500</v>
       </c>
@@ -1102,10 +988,10 @@
         <v>2</v>
       </c>
       <c r="C51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>4521560</v>
       </c>
@@ -1113,13 +999,10 @@
         <v>5</v>
       </c>
       <c r="C52">
-        <v>2</v>
-      </c>
-      <c r="D52">
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>4521564</v>
       </c>
@@ -1127,13 +1010,10 @@
         <v>6</v>
       </c>
       <c r="C53">
-        <v>2</v>
-      </c>
-      <c r="D53">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>4521716</v>
       </c>
@@ -1141,10 +1021,10 @@
         <v>6</v>
       </c>
       <c r="C54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>4521920</v>
       </c>
@@ -1152,13 +1032,10 @@
         <v>6</v>
       </c>
       <c r="C55">
-        <v>2</v>
-      </c>
-      <c r="D55">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>4521923</v>
       </c>
@@ -1166,13 +1043,10 @@
         <v>6</v>
       </c>
       <c r="C56">
-        <v>2</v>
-      </c>
-      <c r="D56">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>4521840</v>
       </c>
@@ -1180,13 +1054,10 @@
         <v>2</v>
       </c>
       <c r="C57">
-        <v>2</v>
-      </c>
-      <c r="D57">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>4522379</v>
       </c>
@@ -1194,13 +1065,10 @@
         <v>2</v>
       </c>
       <c r="C58">
-        <v>2</v>
-      </c>
-      <c r="D58">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>4522353</v>
       </c>
@@ -1208,13 +1076,10 @@
         <v>2</v>
       </c>
       <c r="C59">
-        <v>2</v>
-      </c>
-      <c r="D59">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>4522437</v>
       </c>
@@ -1222,13 +1087,10 @@
         <v>2</v>
       </c>
       <c r="C60">
-        <v>2</v>
-      </c>
-      <c r="D60">
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>4522559</v>
       </c>
@@ -1236,13 +1098,10 @@
         <v>6</v>
       </c>
       <c r="C61">
-        <v>2</v>
-      </c>
-      <c r="D61">
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>4522562</v>
       </c>
@@ -1250,13 +1109,10 @@
         <v>5</v>
       </c>
       <c r="C62">
-        <v>2</v>
-      </c>
-      <c r="D62">
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>4522564</v>
       </c>
@@ -1264,13 +1120,10 @@
         <v>5</v>
       </c>
       <c r="C63">
-        <v>2</v>
-      </c>
-      <c r="D63">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>4521568</v>
       </c>
@@ -1278,13 +1131,10 @@
         <v>2</v>
       </c>
       <c r="C64">
-        <v>2</v>
-      </c>
-      <c r="D64">
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>4522261</v>
       </c>
@@ -1292,13 +1142,10 @@
         <v>5</v>
       </c>
       <c r="C65">
-        <v>2</v>
-      </c>
-      <c r="D65">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>4521945</v>
       </c>
@@ -1306,10 +1153,10 @@
         <v>6</v>
       </c>
       <c r="C66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>4523167</v>
       </c>
@@ -1317,13 +1164,10 @@
         <v>4</v>
       </c>
       <c r="C67">
-        <v>2</v>
-      </c>
-      <c r="D67">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>4522519</v>
       </c>
@@ -1331,13 +1175,10 @@
         <v>2</v>
       </c>
       <c r="C68">
-        <v>2</v>
-      </c>
-      <c r="D68">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>4522631</v>
       </c>
@@ -1345,13 +1186,10 @@
         <v>6</v>
       </c>
       <c r="C69">
-        <v>2</v>
-      </c>
-      <c r="D69">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>4523666</v>
       </c>
@@ -1359,10 +1197,10 @@
         <v>2</v>
       </c>
       <c r="C70">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>4526078</v>
       </c>
@@ -1370,13 +1208,10 @@
         <v>4</v>
       </c>
       <c r="C71">
-        <v>2</v>
-      </c>
-      <c r="D71">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>4526087</v>
       </c>
@@ -1384,13 +1219,10 @@
         <v>2</v>
       </c>
       <c r="C72">
-        <v>2</v>
-      </c>
-      <c r="D72">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>4525283</v>
       </c>
@@ -1398,10 +1230,10 @@
         <v>6</v>
       </c>
       <c r="C73">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>4525481</v>
       </c>
@@ -1409,10 +1241,10 @@
         <v>5</v>
       </c>
       <c r="C74">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>4525642</v>
       </c>
@@ -1420,13 +1252,10 @@
         <v>4</v>
       </c>
       <c r="C75">
-        <v>2</v>
-      </c>
-      <c r="D75">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>4525722</v>
       </c>
@@ -1434,10 +1263,10 @@
         <v>2</v>
       </c>
       <c r="C76">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>4524252</v>
       </c>
@@ -1445,13 +1274,10 @@
         <v>6</v>
       </c>
       <c r="C77">
-        <v>2</v>
-      </c>
-      <c r="D77">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>4524143</v>
       </c>
@@ -1459,13 +1285,10 @@
         <v>2</v>
       </c>
       <c r="C78">
-        <v>2</v>
-      </c>
-      <c r="D78">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>4524166</v>
       </c>
@@ -1473,10 +1296,10 @@
         <v>4</v>
       </c>
       <c r="C79">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>4524407</v>
       </c>
@@ -1484,13 +1307,10 @@
         <v>2</v>
       </c>
       <c r="C80">
-        <v>2</v>
-      </c>
-      <c r="D80">
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>4525211</v>
       </c>
@@ -1498,10 +1318,10 @@
         <v>2</v>
       </c>
       <c r="C81">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>4524935</v>
       </c>
@@ -1509,13 +1329,10 @@
         <v>4</v>
       </c>
       <c r="C82">
-        <v>2</v>
-      </c>
-      <c r="D82">
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>4524651</v>
       </c>
@@ -1523,10 +1340,10 @@
         <v>2</v>
       </c>
       <c r="C83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>4527223</v>
       </c>
@@ -1534,13 +1351,10 @@
         <v>2</v>
       </c>
       <c r="C84">
-        <v>2</v>
-      </c>
-      <c r="D84">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>4524385</v>
       </c>
@@ -1548,13 +1362,10 @@
         <v>6</v>
       </c>
       <c r="C85">
-        <v>2</v>
-      </c>
-      <c r="D85">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>4525219</v>
       </c>
@@ -1562,10 +1373,10 @@
         <v>4</v>
       </c>
       <c r="C86">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>4525551</v>
       </c>
@@ -1573,13 +1384,10 @@
         <v>4</v>
       </c>
       <c r="C87">
-        <v>2</v>
-      </c>
-      <c r="D87">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>4525573</v>
       </c>
@@ -1587,13 +1395,10 @@
         <v>6</v>
       </c>
       <c r="C88">
-        <v>2</v>
-      </c>
-      <c r="D88">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>4526705</v>
       </c>
@@ -1601,13 +1406,10 @@
         <v>2</v>
       </c>
       <c r="C89">
-        <v>2</v>
-      </c>
-      <c r="D89">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>4526741</v>
       </c>
@@ -1615,10 +1417,10 @@
         <v>6</v>
       </c>
       <c r="C90">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>4526902</v>
       </c>
@@ -1626,13 +1428,10 @@
         <v>5</v>
       </c>
       <c r="C91">
-        <v>2</v>
-      </c>
-      <c r="D91">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>4527092</v>
       </c>
@@ -1640,13 +1439,10 @@
         <v>6</v>
       </c>
       <c r="C92">
-        <v>2</v>
-      </c>
-      <c r="D92">
         <v>26</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>4527249</v>
       </c>
@@ -1654,13 +1450,10 @@
         <v>2</v>
       </c>
       <c r="C93">
-        <v>2</v>
-      </c>
-      <c r="D93">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>4527450</v>
       </c>
@@ -1668,10 +1461,10 @@
         <v>5</v>
       </c>
       <c r="C94">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>4527453</v>
       </c>
@@ -1679,10 +1472,10 @@
         <v>2</v>
       </c>
       <c r="C95">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>4527689</v>
       </c>
@@ -1690,10 +1483,10 @@
         <v>2</v>
       </c>
       <c r="C96">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>4528283</v>
       </c>
@@ -1701,10 +1494,10 @@
         <v>5</v>
       </c>
       <c r="C97">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>4526734</v>
       </c>
@@ -1712,13 +1505,10 @@
         <v>2</v>
       </c>
       <c r="C98">
-        <v>2</v>
-      </c>
-      <c r="D98">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>4527099</v>
       </c>
@@ -1726,10 +1516,10 @@
         <v>2</v>
       </c>
       <c r="C99">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>4528829</v>
       </c>
@@ -1737,13 +1527,10 @@
         <v>6</v>
       </c>
       <c r="C100">
-        <v>2</v>
-      </c>
-      <c r="D100">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>4528906</v>
       </c>
@@ -1751,13 +1538,10 @@
         <v>2</v>
       </c>
       <c r="C101">
-        <v>2</v>
-      </c>
-      <c r="D101">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>4528979</v>
       </c>
@@ -1765,13 +1549,10 @@
         <v>2</v>
       </c>
       <c r="C102">
-        <v>2</v>
-      </c>
-      <c r="D102">
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>4528202</v>
       </c>
@@ -1779,10 +1560,10 @@
         <v>2</v>
       </c>
       <c r="C103">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>4528208</v>
       </c>
@@ -1790,10 +1571,10 @@
         <v>2</v>
       </c>
       <c r="C104">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>4527949</v>
       </c>
@@ -1801,13 +1582,10 @@
         <v>6</v>
       </c>
       <c r="C105">
-        <v>2</v>
-      </c>
-      <c r="D105">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>4527541</v>
       </c>
@@ -1815,13 +1593,10 @@
         <v>6</v>
       </c>
       <c r="C106">
-        <v>2</v>
-      </c>
-      <c r="D106">
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>4529044</v>
       </c>
@@ -1829,10 +1604,10 @@
         <v>6</v>
       </c>
       <c r="C107">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>4529093</v>
       </c>
@@ -1840,13 +1615,10 @@
         <v>4</v>
       </c>
       <c r="C108">
-        <v>2</v>
-      </c>
-      <c r="D108">
         <v>21</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>4529190</v>
       </c>
@@ -1854,13 +1626,10 @@
         <v>6</v>
       </c>
       <c r="C109">
-        <v>2</v>
-      </c>
-      <c r="D109">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>4529268</v>
       </c>
@@ -1868,10 +1637,10 @@
         <v>2</v>
       </c>
       <c r="C110">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>4529379</v>
       </c>
@@ -1879,13 +1648,10 @@
         <v>2</v>
       </c>
       <c r="C111">
-        <v>2</v>
-      </c>
-      <c r="D111">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>4530196</v>
       </c>
@@ -1893,13 +1659,10 @@
         <v>6</v>
       </c>
       <c r="C112">
-        <v>2</v>
-      </c>
-      <c r="D112">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>4528486</v>
       </c>
@@ -1907,13 +1670,10 @@
         <v>2</v>
       </c>
       <c r="C113">
-        <v>2</v>
-      </c>
-      <c r="D113">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>4528397</v>
       </c>
@@ -1921,13 +1681,10 @@
         <v>4</v>
       </c>
       <c r="C114">
-        <v>2</v>
-      </c>
-      <c r="D114">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>4527957</v>
       </c>
@@ -1935,13 +1692,10 @@
         <v>5</v>
       </c>
       <c r="C115">
-        <v>2</v>
-      </c>
-      <c r="D115">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>4528766</v>
       </c>
@@ -1949,10 +1703,10 @@
         <v>5</v>
       </c>
       <c r="C116">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>4528923</v>
       </c>
@@ -1960,13 +1714,10 @@
         <v>2</v>
       </c>
       <c r="C117">
-        <v>2</v>
-      </c>
-      <c r="D117">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>4529301</v>
       </c>
@@ -1974,13 +1725,10 @@
         <v>2</v>
       </c>
       <c r="C118">
-        <v>2</v>
-      </c>
-      <c r="D118">
         <v>32</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>4529933</v>
       </c>
@@ -1988,13 +1736,10 @@
         <v>5</v>
       </c>
       <c r="C119">
-        <v>2</v>
-      </c>
-      <c r="D119">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>4530406</v>
       </c>
@@ -2002,13 +1747,10 @@
         <v>2</v>
       </c>
       <c r="C120">
-        <v>2</v>
-      </c>
-      <c r="D120">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>4530408</v>
       </c>
@@ -2016,13 +1758,10 @@
         <v>4</v>
       </c>
       <c r="C121">
-        <v>2</v>
-      </c>
-      <c r="D121">
         <v>21</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>4530431</v>
       </c>
@@ -2030,13 +1769,10 @@
         <v>2</v>
       </c>
       <c r="C122">
-        <v>2</v>
-      </c>
-      <c r="D122">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>4530464</v>
       </c>
@@ -2044,13 +1780,10 @@
         <v>6</v>
       </c>
       <c r="C123">
-        <v>2</v>
-      </c>
-      <c r="D123">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>4530472</v>
       </c>
@@ -2058,10 +1791,10 @@
         <v>6</v>
       </c>
       <c r="C124">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>4530629</v>
       </c>
@@ -2069,10 +1802,10 @@
         <v>2</v>
       </c>
       <c r="C125">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>4530653</v>
       </c>
@@ -2080,10 +1813,10 @@
         <v>6</v>
       </c>
       <c r="C126">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>4530698</v>
       </c>
@@ -2091,13 +1824,10 @@
         <v>5</v>
       </c>
       <c r="C127">
-        <v>2</v>
-      </c>
-      <c r="D127">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>4529405</v>
       </c>
@@ -2105,13 +1835,10 @@
         <v>4</v>
       </c>
       <c r="C128">
-        <v>2</v>
-      </c>
-      <c r="D128">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>4529820</v>
       </c>
@@ -2119,10 +1846,10 @@
         <v>4</v>
       </c>
       <c r="C129">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>4529919</v>
       </c>
@@ -2130,13 +1857,10 @@
         <v>2</v>
       </c>
       <c r="C130">
-        <v>2</v>
-      </c>
-      <c r="D130">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>4529845</v>
       </c>
@@ -2144,13 +1868,10 @@
         <v>6</v>
       </c>
       <c r="C131">
-        <v>2</v>
-      </c>
-      <c r="D131">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>4530296</v>
       </c>
@@ -2158,13 +1879,10 @@
         <v>2</v>
       </c>
       <c r="C132">
-        <v>2</v>
-      </c>
-      <c r="D132">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>4530444</v>
       </c>
@@ -2172,13 +1890,10 @@
         <v>6</v>
       </c>
       <c r="C133">
-        <v>2</v>
-      </c>
-      <c r="D133">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>4530718</v>
       </c>
@@ -2186,13 +1901,10 @@
         <v>6</v>
       </c>
       <c r="C134">
-        <v>2</v>
-      </c>
-      <c r="D134">
         <v>25</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>4532173</v>
       </c>
@@ -2200,10 +1912,10 @@
         <v>2</v>
       </c>
       <c r="C135">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>4531896</v>
       </c>
@@ -2211,10 +1923,10 @@
         <v>5</v>
       </c>
       <c r="C136">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>4531843</v>
       </c>
@@ -2222,13 +1934,10 @@
         <v>6</v>
       </c>
       <c r="C137">
-        <v>2</v>
-      </c>
-      <c r="D137">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>4531579</v>
       </c>
@@ -2236,13 +1945,10 @@
         <v>5</v>
       </c>
       <c r="C138">
-        <v>2</v>
-      </c>
-      <c r="D138">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>4530930</v>
       </c>
@@ -2250,10 +1956,10 @@
         <v>5</v>
       </c>
       <c r="C139">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>4531265</v>
       </c>
@@ -2261,13 +1967,10 @@
         <v>2</v>
       </c>
       <c r="C140">
-        <v>2</v>
-      </c>
-      <c r="D140">
         <v>26</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>4532236</v>
       </c>
@@ -2275,10 +1978,10 @@
         <v>6</v>
       </c>
       <c r="C141">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>4532209</v>
       </c>
@@ -2286,10 +1989,10 @@
         <v>5</v>
       </c>
       <c r="C142">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>4532308</v>
       </c>
@@ -2297,13 +2000,10 @@
         <v>2</v>
       </c>
       <c r="C143">
-        <v>2</v>
-      </c>
-      <c r="D143">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>4532377</v>
       </c>
@@ -2311,13 +2011,10 @@
         <v>2</v>
       </c>
       <c r="C144">
-        <v>2</v>
-      </c>
-      <c r="D144">
         <v>26</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>4533747</v>
       </c>
@@ -2325,13 +2022,10 @@
         <v>6</v>
       </c>
       <c r="C145">
-        <v>2</v>
-      </c>
-      <c r="D145">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>4531696</v>
       </c>
@@ -2339,10 +2033,10 @@
         <v>5</v>
       </c>
       <c r="C146">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>4532508</v>
       </c>
@@ -2350,10 +2044,11 @@
         <v>5</v>
       </c>
       <c r="C147">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C147" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>